--- a/HT-6/BAC-24-Diagrama de Gantt.xlsx
+++ b/HT-6/BAC-24-Diagrama de Gantt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juan/Documents/Universidad/2022-20/arquiemp/repo/arquiemp/HT-6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E7FF82A-7D89-7F43-8516-42A977AF8412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ADD44A2-985E-AA48-97F1-126C8826AB03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{6D2ADF59-F33A-44E3-88FB-8431094B32CC}"/>
+    <workbookView xWindow="34460" yWindow="-4740" windowWidth="28800" windowHeight="17500" xr2:uid="{6D2ADF59-F33A-44E3-88FB-8431094B32CC}"/>
   </bookViews>
   <sheets>
     <sheet name="BAC-24" sheetId="5" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>A Playbook for Business Architecture Construction</t>
   </si>
@@ -49,13 +49,58 @@
   </si>
   <si>
     <t>Meses</t>
+  </si>
+  <si>
+    <t>* Mes 0 es 31/12/2023</t>
+  </si>
+  <si>
+    <t>AE-1</t>
+  </si>
+  <si>
+    <t>AE-2</t>
+  </si>
+  <si>
+    <t>AE-3</t>
+  </si>
+  <si>
+    <t>AE-4</t>
+  </si>
+  <si>
+    <t>AE-5</t>
+  </si>
+  <si>
+    <t>AE-6</t>
+  </si>
+  <si>
+    <t>AE-7</t>
+  </si>
+  <si>
+    <t>AE-8</t>
+  </si>
+  <si>
+    <t>AE-9</t>
+  </si>
+  <si>
+    <t>AE-10</t>
+  </si>
+  <si>
+    <t>AE-11</t>
+  </si>
+  <si>
+    <t>AE-12</t>
+  </si>
+  <si>
+    <t>AE-13</t>
+  </si>
+  <si>
+    <t>AE-14</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,6 +117,11 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -529,18 +579,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13501738-038E-4E97-9018-3B3F7E11EBEA}">
-  <dimension ref="A1:BI20"/>
+  <dimension ref="A1:BI23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="AW20" sqref="AW20"/>
+      <selection activeCell="U33" sqref="U33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="14.83203125" customWidth="1"/>
-    <col min="2" max="10" width="2.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="37" width="3.1640625" customWidth="1"/>
-    <col min="38" max="61" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="61" width="3.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:61" ht="16" x14ac:dyDescent="0.2">
@@ -870,8 +918,10 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:61" x14ac:dyDescent="0.15">
-      <c r="A7" s="4"/>
+    <row r="7" spans="1:61" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -933,8 +983,10 @@
       <c r="BH7" s="3"/>
       <c r="BI7" s="3"/>
     </row>
-    <row r="8" spans="1:61" x14ac:dyDescent="0.15">
-      <c r="A8" s="4"/>
+    <row r="8" spans="1:61" ht="15" x14ac:dyDescent="0.15">
+      <c r="A8" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -996,8 +1048,10 @@
       <c r="BH8" s="3"/>
       <c r="BI8" s="3"/>
     </row>
-    <row r="9" spans="1:61" x14ac:dyDescent="0.15">
-      <c r="A9" s="4"/>
+    <row r="9" spans="1:61" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -1059,8 +1113,10 @@
       <c r="BH9" s="3"/>
       <c r="BI9" s="3"/>
     </row>
-    <row r="10" spans="1:61" x14ac:dyDescent="0.15">
-      <c r="A10" s="4"/>
+    <row r="10" spans="1:61" ht="15" x14ac:dyDescent="0.15">
+      <c r="A10" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -1122,8 +1178,10 @@
       <c r="BH10" s="3"/>
       <c r="BI10" s="3"/>
     </row>
-    <row r="11" spans="1:61" x14ac:dyDescent="0.15">
-      <c r="A11" s="4"/>
+    <row r="11" spans="1:61" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -1185,8 +1243,10 @@
       <c r="BH11" s="3"/>
       <c r="BI11" s="3"/>
     </row>
-    <row r="12" spans="1:61" x14ac:dyDescent="0.15">
-      <c r="A12" s="4"/>
+    <row r="12" spans="1:61" ht="15" x14ac:dyDescent="0.15">
+      <c r="A12" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -1248,8 +1308,10 @@
       <c r="BH12" s="3"/>
       <c r="BI12" s="3"/>
     </row>
-    <row r="13" spans="1:61" x14ac:dyDescent="0.15">
-      <c r="A13" s="4"/>
+    <row r="13" spans="1:61" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -1311,8 +1373,10 @@
       <c r="BH13" s="3"/>
       <c r="BI13" s="3"/>
     </row>
-    <row r="14" spans="1:61" x14ac:dyDescent="0.15">
-      <c r="A14" s="4"/>
+    <row r="14" spans="1:61" ht="15" x14ac:dyDescent="0.15">
+      <c r="A14" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -1374,8 +1438,10 @@
       <c r="BH14" s="3"/>
       <c r="BI14" s="3"/>
     </row>
-    <row r="15" spans="1:61" x14ac:dyDescent="0.15">
-      <c r="A15" s="4"/>
+    <row r="15" spans="1:61" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -1437,8 +1503,10 @@
       <c r="BH15" s="3"/>
       <c r="BI15" s="3"/>
     </row>
-    <row r="16" spans="1:61" x14ac:dyDescent="0.15">
-      <c r="A16" s="4"/>
+    <row r="16" spans="1:61" ht="15" x14ac:dyDescent="0.15">
+      <c r="A16" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -1500,8 +1568,10 @@
       <c r="BH16" s="3"/>
       <c r="BI16" s="3"/>
     </row>
-    <row r="17" spans="1:61" x14ac:dyDescent="0.15">
-      <c r="A17" s="4"/>
+    <row r="17" spans="1:61" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -1563,8 +1633,10 @@
       <c r="BH17" s="3"/>
       <c r="BI17" s="3"/>
     </row>
-    <row r="18" spans="1:61" x14ac:dyDescent="0.15">
-      <c r="A18" s="4"/>
+    <row r="18" spans="1:61" ht="15" x14ac:dyDescent="0.15">
+      <c r="A18" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -1626,8 +1698,10 @@
       <c r="BH18" s="3"/>
       <c r="BI18" s="3"/>
     </row>
-    <row r="19" spans="1:61" x14ac:dyDescent="0.15">
-      <c r="A19" s="4"/>
+    <row r="19" spans="1:61" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -1689,8 +1763,10 @@
       <c r="BH19" s="3"/>
       <c r="BI19" s="3"/>
     </row>
-    <row r="20" spans="1:61" x14ac:dyDescent="0.15">
-      <c r="A20" s="4"/>
+    <row r="20" spans="1:61" ht="15" x14ac:dyDescent="0.15">
+      <c r="A20" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -1752,11 +1828,17 @@
       <c r="BH20" s="3"/>
       <c r="BI20" s="3"/>
     </row>
+    <row r="23" spans="1:61" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:BI5"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/HT-6/BAC-24-Diagrama de Gantt.xlsx
+++ b/HT-6/BAC-24-Diagrama de Gantt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juan/Documents/Universidad/2022-20/arquiemp/repo/arquiemp/HT-6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ADD44A2-985E-AA48-97F1-126C8826AB03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD28378C-6541-EF4B-AD77-34EE3870DC0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="34460" yWindow="-4740" windowWidth="28800" windowHeight="17500" xr2:uid="{6D2ADF59-F33A-44E3-88FB-8431094B32CC}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>A Playbook for Business Architecture Construction</t>
   </si>
@@ -94,13 +94,19 @@
   </si>
   <si>
     <t>AE-14</t>
+  </si>
+  <si>
+    <t>AE-15</t>
+  </si>
+  <si>
+    <t>AE-16</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,8 +131,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="2" tint="-0.249977111117893"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -142,6 +154,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -236,7 +254,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -265,6 +283,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -582,7 +601,7 @@
   <dimension ref="A1:BI23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="U33" sqref="U33"/>
+      <selection activeCell="A21" sqref="A21:BI22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1828,6 +1847,136 @@
       <c r="BH20" s="3"/>
       <c r="BI20" s="3"/>
     </row>
+    <row r="21" spans="1:61" ht="15" x14ac:dyDescent="0.15">
+      <c r="A21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3"/>
+      <c r="W21" s="3"/>
+      <c r="X21" s="3"/>
+      <c r="Y21" s="3"/>
+      <c r="Z21" s="3"/>
+      <c r="AA21" s="3"/>
+      <c r="AB21" s="3"/>
+      <c r="AC21" s="3"/>
+      <c r="AD21" s="3"/>
+      <c r="AE21" s="3"/>
+      <c r="AF21" s="3"/>
+      <c r="AG21" s="3"/>
+      <c r="AH21" s="3"/>
+      <c r="AI21" s="3"/>
+      <c r="AJ21" s="3"/>
+      <c r="AK21" s="3"/>
+      <c r="AL21" s="3"/>
+      <c r="AM21" s="3"/>
+      <c r="AN21" s="3"/>
+      <c r="AO21" s="3"/>
+      <c r="AP21" s="3"/>
+      <c r="AQ21" s="3"/>
+      <c r="AR21" s="3"/>
+      <c r="AS21" s="3"/>
+      <c r="AT21" s="3"/>
+      <c r="AU21" s="3"/>
+      <c r="AV21" s="3"/>
+      <c r="AW21" s="3"/>
+      <c r="AX21" s="3"/>
+      <c r="AY21" s="3"/>
+      <c r="AZ21" s="3"/>
+      <c r="BA21" s="3"/>
+      <c r="BB21" s="3"/>
+      <c r="BC21" s="3"/>
+      <c r="BD21" s="3"/>
+      <c r="BE21" s="3"/>
+      <c r="BF21" s="3"/>
+      <c r="BG21" s="3"/>
+      <c r="BH21" s="3"/>
+      <c r="BI21" s="3"/>
+    </row>
+    <row r="22" spans="1:61" ht="15" x14ac:dyDescent="0.15">
+      <c r="A22" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="3"/>
+      <c r="AA22" s="3"/>
+      <c r="AB22" s="3"/>
+      <c r="AC22" s="3"/>
+      <c r="AD22" s="3"/>
+      <c r="AE22" s="3"/>
+      <c r="AF22" s="3"/>
+      <c r="AG22" s="3"/>
+      <c r="AH22" s="3"/>
+      <c r="AI22" s="3"/>
+      <c r="AJ22" s="3"/>
+      <c r="AK22" s="3"/>
+      <c r="AL22" s="3"/>
+      <c r="AM22" s="3"/>
+      <c r="AN22" s="3"/>
+      <c r="AO22" s="3"/>
+      <c r="AP22" s="3"/>
+      <c r="AQ22" s="3"/>
+      <c r="AR22" s="3"/>
+      <c r="AS22" s="3"/>
+      <c r="AT22" s="3"/>
+      <c r="AU22" s="3"/>
+      <c r="AV22" s="3"/>
+      <c r="AW22" s="3"/>
+      <c r="AX22" s="3"/>
+      <c r="AY22" s="3"/>
+      <c r="AZ22" s="3"/>
+      <c r="BA22" s="3"/>
+      <c r="BB22" s="3"/>
+      <c r="BC22" s="3"/>
+      <c r="BD22" s="3"/>
+      <c r="BE22" s="3"/>
+      <c r="BF22" s="3"/>
+      <c r="BG22" s="3"/>
+      <c r="BH22" s="3"/>
+      <c r="BI22" s="3"/>
+    </row>
     <row r="23" spans="1:61" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
         <v>5</v>

--- a/HT-6/BAC-24-Diagrama de Gantt.xlsx
+++ b/HT-6/BAC-24-Diagrama de Gantt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juan/Documents/Universidad/2022-20/arquiemp/repo/arquiemp/HT-6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD28378C-6541-EF4B-AD77-34EE3870DC0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77DC2F49-C7FD-E740-AF7E-5B3041ECD00B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34460" yWindow="-4740" windowWidth="28800" windowHeight="17500" xr2:uid="{6D2ADF59-F33A-44E3-88FB-8431094B32CC}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{6D2ADF59-F33A-44E3-88FB-8431094B32CC}"/>
   </bookViews>
   <sheets>
     <sheet name="BAC-24" sheetId="5" r:id="rId1"/>
@@ -268,6 +268,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -283,7 +284,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -601,7 +601,7 @@
   <dimension ref="A1:BI23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:BI22"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -629,74 +629,74 @@
       <c r="A4" s="1"/>
     </row>
     <row r="5" spans="1:61" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="10"/>
-      <c r="V5" s="10"/>
-      <c r="W5" s="10"/>
-      <c r="X5" s="10"/>
-      <c r="Y5" s="10"/>
-      <c r="Z5" s="10"/>
-      <c r="AA5" s="10"/>
-      <c r="AB5" s="10"/>
-      <c r="AC5" s="10"/>
-      <c r="AD5" s="10"/>
-      <c r="AE5" s="10"/>
-      <c r="AF5" s="10"/>
-      <c r="AG5" s="10"/>
-      <c r="AH5" s="10"/>
-      <c r="AI5" s="10"/>
-      <c r="AJ5" s="10"/>
-      <c r="AK5" s="10"/>
-      <c r="AL5" s="10"/>
-      <c r="AM5" s="10"/>
-      <c r="AN5" s="10"/>
-      <c r="AO5" s="10"/>
-      <c r="AP5" s="10"/>
-      <c r="AQ5" s="10"/>
-      <c r="AR5" s="10"/>
-      <c r="AS5" s="10"/>
-      <c r="AT5" s="10"/>
-      <c r="AU5" s="10"/>
-      <c r="AV5" s="10"/>
-      <c r="AW5" s="10"/>
-      <c r="AX5" s="10"/>
-      <c r="AY5" s="10"/>
-      <c r="AZ5" s="10"/>
-      <c r="BA5" s="10"/>
-      <c r="BB5" s="10"/>
-      <c r="BC5" s="10"/>
-      <c r="BD5" s="10"/>
-      <c r="BE5" s="10"/>
-      <c r="BF5" s="10"/>
-      <c r="BG5" s="10"/>
-      <c r="BH5" s="10"/>
-      <c r="BI5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="11"/>
+      <c r="W5" s="11"/>
+      <c r="X5" s="11"/>
+      <c r="Y5" s="11"/>
+      <c r="Z5" s="11"/>
+      <c r="AA5" s="11"/>
+      <c r="AB5" s="11"/>
+      <c r="AC5" s="11"/>
+      <c r="AD5" s="11"/>
+      <c r="AE5" s="11"/>
+      <c r="AF5" s="11"/>
+      <c r="AG5" s="11"/>
+      <c r="AH5" s="11"/>
+      <c r="AI5" s="11"/>
+      <c r="AJ5" s="11"/>
+      <c r="AK5" s="11"/>
+      <c r="AL5" s="11"/>
+      <c r="AM5" s="11"/>
+      <c r="AN5" s="11"/>
+      <c r="AO5" s="11"/>
+      <c r="AP5" s="11"/>
+      <c r="AQ5" s="11"/>
+      <c r="AR5" s="11"/>
+      <c r="AS5" s="11"/>
+      <c r="AT5" s="11"/>
+      <c r="AU5" s="11"/>
+      <c r="AV5" s="11"/>
+      <c r="AW5" s="11"/>
+      <c r="AX5" s="11"/>
+      <c r="AY5" s="11"/>
+      <c r="AZ5" s="11"/>
+      <c r="BA5" s="11"/>
+      <c r="BB5" s="11"/>
+      <c r="BC5" s="11"/>
+      <c r="BD5" s="11"/>
+      <c r="BE5" s="11"/>
+      <c r="BF5" s="11"/>
+      <c r="BG5" s="11"/>
+      <c r="BH5" s="11"/>
+      <c r="BI5" s="12"/>
     </row>
     <row r="6" spans="1:61" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="8"/>
+      <c r="A6" s="9"/>
       <c r="B6" s="6">
         <v>1</v>
       </c>
@@ -1851,10 +1851,10 @@
       <c r="A21" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>

--- a/HT-6/BAC-24-Diagrama de Gantt.xlsx
+++ b/HT-6/BAC-24-Diagrama de Gantt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juan/Documents/Universidad/2022-20/arquiemp/repo/arquiemp/HT-6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77DC2F49-C7FD-E740-AF7E-5B3041ECD00B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A2A83FD-066B-CE4C-BB65-B900FBB0628E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{6D2ADF59-F33A-44E3-88FB-8431094B32CC}"/>
+    <workbookView xWindow="30000" yWindow="-4720" windowWidth="28800" windowHeight="17500" xr2:uid="{6D2ADF59-F33A-44E3-88FB-8431094B32CC}"/>
   </bookViews>
   <sheets>
     <sheet name="BAC-24" sheetId="5" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>A Playbook for Business Architecture Construction</t>
   </si>
@@ -49,9 +49,6 @@
   </si>
   <si>
     <t>Meses</t>
-  </si>
-  <si>
-    <t>* Mes 0 es 31/12/2023</t>
   </si>
   <si>
     <t>AE-1</t>
@@ -84,29 +81,14 @@
     <t>AE-10</t>
   </si>
   <si>
-    <t>AE-11</t>
-  </si>
-  <si>
-    <t>AE-12</t>
-  </si>
-  <si>
-    <t>AE-13</t>
-  </si>
-  <si>
-    <t>AE-14</t>
-  </si>
-  <si>
-    <t>AE-15</t>
-  </si>
-  <si>
-    <t>AE-16</t>
+    <t>* Mes 0 es 1/1/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,12 +110,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="2" tint="-0.249977111117893"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -159,12 +135,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.249977111117893"/>
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -250,11 +226,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -268,7 +253,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -284,6 +268,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -598,10 +589,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13501738-038E-4E97-9018-3B3F7E11EBEA}">
-  <dimension ref="A1:BI23"/>
+  <dimension ref="A1:BJ19"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="AK14" sqref="AK14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -610,93 +601,93 @@
     <col min="2" max="61" width="3.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:61" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:62" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:61" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:62" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:61" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:62" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:61" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:62" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:61" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="8" t="s">
+    <row r="5" spans="1:62" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="11"/>
-      <c r="T5" s="11"/>
-      <c r="U5" s="11"/>
-      <c r="V5" s="11"/>
-      <c r="W5" s="11"/>
-      <c r="X5" s="11"/>
-      <c r="Y5" s="11"/>
-      <c r="Z5" s="11"/>
-      <c r="AA5" s="11"/>
-      <c r="AB5" s="11"/>
-      <c r="AC5" s="11"/>
-      <c r="AD5" s="11"/>
-      <c r="AE5" s="11"/>
-      <c r="AF5" s="11"/>
-      <c r="AG5" s="11"/>
-      <c r="AH5" s="11"/>
-      <c r="AI5" s="11"/>
-      <c r="AJ5" s="11"/>
-      <c r="AK5" s="11"/>
-      <c r="AL5" s="11"/>
-      <c r="AM5" s="11"/>
-      <c r="AN5" s="11"/>
-      <c r="AO5" s="11"/>
-      <c r="AP5" s="11"/>
-      <c r="AQ5" s="11"/>
-      <c r="AR5" s="11"/>
-      <c r="AS5" s="11"/>
-      <c r="AT5" s="11"/>
-      <c r="AU5" s="11"/>
-      <c r="AV5" s="11"/>
-      <c r="AW5" s="11"/>
-      <c r="AX5" s="11"/>
-      <c r="AY5" s="11"/>
-      <c r="AZ5" s="11"/>
-      <c r="BA5" s="11"/>
-      <c r="BB5" s="11"/>
-      <c r="BC5" s="11"/>
-      <c r="BD5" s="11"/>
-      <c r="BE5" s="11"/>
-      <c r="BF5" s="11"/>
-      <c r="BG5" s="11"/>
-      <c r="BH5" s="11"/>
-      <c r="BI5" s="12"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="10"/>
+      <c r="W5" s="10"/>
+      <c r="X5" s="10"/>
+      <c r="Y5" s="10"/>
+      <c r="Z5" s="10"/>
+      <c r="AA5" s="10"/>
+      <c r="AB5" s="10"/>
+      <c r="AC5" s="10"/>
+      <c r="AD5" s="10"/>
+      <c r="AE5" s="10"/>
+      <c r="AF5" s="10"/>
+      <c r="AG5" s="10"/>
+      <c r="AH5" s="10"/>
+      <c r="AI5" s="10"/>
+      <c r="AJ5" s="10"/>
+      <c r="AK5" s="10"/>
+      <c r="AL5" s="10"/>
+      <c r="AM5" s="10"/>
+      <c r="AN5" s="10"/>
+      <c r="AO5" s="10"/>
+      <c r="AP5" s="10"/>
+      <c r="AQ5" s="10"/>
+      <c r="AR5" s="10"/>
+      <c r="AS5" s="10"/>
+      <c r="AT5" s="10"/>
+      <c r="AU5" s="10"/>
+      <c r="AV5" s="10"/>
+      <c r="AW5" s="10"/>
+      <c r="AX5" s="10"/>
+      <c r="AY5" s="10"/>
+      <c r="AZ5" s="10"/>
+      <c r="BA5" s="10"/>
+      <c r="BB5" s="10"/>
+      <c r="BC5" s="10"/>
+      <c r="BD5" s="10"/>
+      <c r="BE5" s="10"/>
+      <c r="BF5" s="10"/>
+      <c r="BG5" s="10"/>
+      <c r="BH5" s="10"/>
+      <c r="BI5" s="11"/>
     </row>
-    <row r="6" spans="1:61" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="9"/>
+    <row r="6" spans="1:62" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="8"/>
       <c r="B6" s="6">
         <v>1</v>
       </c>
@@ -936,78 +927,80 @@
         <f t="shared" ref="BI6" si="37">BH6+1</f>
         <v>60</v>
       </c>
+      <c r="BJ6" s="15"/>
     </row>
-    <row r="7" spans="1:61" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:62" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
+      <c r="T7" s="13"/>
+      <c r="U7" s="13"/>
+      <c r="V7" s="13"/>
       <c r="W7" s="3"/>
       <c r="X7" s="3"/>
       <c r="Y7" s="3"/>
-      <c r="Z7" s="3"/>
-      <c r="AA7" s="3"/>
-      <c r="AB7" s="3"/>
+      <c r="Z7" s="13"/>
+      <c r="AA7" s="13"/>
+      <c r="AB7" s="13"/>
       <c r="AC7" s="3"/>
       <c r="AD7" s="3"/>
       <c r="AE7" s="3"/>
-      <c r="AF7" s="3"/>
-      <c r="AG7" s="3"/>
-      <c r="AH7" s="3"/>
+      <c r="AF7" s="13"/>
+      <c r="AG7" s="13"/>
+      <c r="AH7" s="13"/>
       <c r="AI7" s="3"/>
       <c r="AJ7" s="3"/>
       <c r="AK7" s="3"/>
-      <c r="AL7" s="3"/>
-      <c r="AM7" s="3"/>
-      <c r="AN7" s="3"/>
+      <c r="AL7" s="13"/>
+      <c r="AM7" s="13"/>
+      <c r="AN7" s="13"/>
       <c r="AO7" s="3"/>
       <c r="AP7" s="3"/>
       <c r="AQ7" s="3"/>
-      <c r="AR7" s="3"/>
-      <c r="AS7" s="3"/>
-      <c r="AT7" s="3"/>
+      <c r="AR7" s="13"/>
+      <c r="AS7" s="13"/>
+      <c r="AT7" s="13"/>
       <c r="AU7" s="3"/>
       <c r="AV7" s="3"/>
       <c r="AW7" s="3"/>
-      <c r="AX7" s="3"/>
-      <c r="AY7" s="3"/>
-      <c r="AZ7" s="3"/>
+      <c r="AX7" s="13"/>
+      <c r="AY7" s="13"/>
+      <c r="AZ7" s="13"/>
       <c r="BA7" s="3"/>
       <c r="BB7" s="3"/>
       <c r="BC7" s="3"/>
-      <c r="BD7" s="3"/>
-      <c r="BE7" s="3"/>
-      <c r="BF7" s="3"/>
+      <c r="BD7" s="13"/>
+      <c r="BE7" s="13"/>
+      <c r="BF7" s="13"/>
       <c r="BG7" s="3"/>
       <c r="BH7" s="3"/>
       <c r="BI7" s="3"/>
+      <c r="BJ7" s="16"/>
     </row>
-    <row r="8" spans="1:61" ht="15" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:62" ht="15" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
+        <v>6</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -1018,58 +1011,59 @@
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
-      <c r="W8" s="3"/>
-      <c r="X8" s="3"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="12"/>
+      <c r="V8" s="12"/>
+      <c r="W8" s="13"/>
+      <c r="X8" s="13"/>
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
       <c r="AA8" s="3"/>
       <c r="AB8" s="3"/>
-      <c r="AC8" s="3"/>
-      <c r="AD8" s="3"/>
+      <c r="AC8" s="13"/>
+      <c r="AD8" s="13"/>
       <c r="AE8" s="3"/>
       <c r="AF8" s="3"/>
       <c r="AG8" s="3"/>
       <c r="AH8" s="3"/>
-      <c r="AI8" s="3"/>
-      <c r="AJ8" s="3"/>
+      <c r="AI8" s="13"/>
+      <c r="AJ8" s="13"/>
       <c r="AK8" s="3"/>
       <c r="AL8" s="3"/>
       <c r="AM8" s="3"/>
       <c r="AN8" s="3"/>
-      <c r="AO8" s="3"/>
-      <c r="AP8" s="3"/>
+      <c r="AO8" s="13"/>
+      <c r="AP8" s="13"/>
       <c r="AQ8" s="3"/>
       <c r="AR8" s="3"/>
       <c r="AS8" s="3"/>
       <c r="AT8" s="3"/>
-      <c r="AU8" s="3"/>
-      <c r="AV8" s="3"/>
+      <c r="AU8" s="13"/>
+      <c r="AV8" s="13"/>
       <c r="AW8" s="3"/>
       <c r="AX8" s="3"/>
       <c r="AY8" s="3"/>
       <c r="AZ8" s="3"/>
-      <c r="BA8" s="3"/>
-      <c r="BB8" s="3"/>
+      <c r="BA8" s="13"/>
+      <c r="BB8" s="13"/>
       <c r="BC8" s="3"/>
       <c r="BD8" s="3"/>
       <c r="BE8" s="3"/>
       <c r="BF8" s="3"/>
-      <c r="BG8" s="3"/>
-      <c r="BH8" s="3"/>
+      <c r="BG8" s="13"/>
+      <c r="BH8" s="13"/>
       <c r="BI8" s="3"/>
+      <c r="BJ8" s="16"/>
     </row>
-    <row r="9" spans="1:61" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:62" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -1085,13 +1079,13 @@
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
-      <c r="U9" s="3"/>
-      <c r="V9" s="3"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="13"/>
+      <c r="U9" s="13"/>
+      <c r="V9" s="13"/>
       <c r="W9" s="3"/>
       <c r="X9" s="3"/>
       <c r="Y9" s="3"/>
@@ -1131,10 +1125,11 @@
       <c r="BG9" s="3"/>
       <c r="BH9" s="3"/>
       <c r="BI9" s="3"/>
+      <c r="BJ9" s="16"/>
     </row>
-    <row r="10" spans="1:61" ht="15" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:62" ht="15" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -1146,17 +1141,17 @@
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
+      <c r="L10" s="12"/>
       <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
-      <c r="U10" s="3"/>
-      <c r="V10" s="3"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="13"/>
+      <c r="U10" s="13"/>
+      <c r="V10" s="13"/>
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
       <c r="Y10" s="3"/>
@@ -1196,10 +1191,11 @@
       <c r="BG10" s="3"/>
       <c r="BH10" s="3"/>
       <c r="BI10" s="3"/>
+      <c r="BJ10" s="16"/>
     </row>
-    <row r="11" spans="1:61" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:62" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -1213,26 +1209,26 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
-      <c r="U11" s="3"/>
-      <c r="V11" s="3"/>
-      <c r="W11" s="3"/>
-      <c r="X11" s="3"/>
-      <c r="Y11" s="3"/>
-      <c r="Z11" s="3"/>
-      <c r="AA11" s="3"/>
-      <c r="AB11" s="3"/>
-      <c r="AC11" s="3"/>
-      <c r="AD11" s="3"/>
-      <c r="AE11" s="3"/>
-      <c r="AF11" s="3"/>
-      <c r="AG11" s="3"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="13"/>
+      <c r="W11" s="12"/>
+      <c r="X11" s="12"/>
+      <c r="Y11" s="12"/>
+      <c r="Z11" s="12"/>
+      <c r="AA11" s="12"/>
+      <c r="AB11" s="12"/>
+      <c r="AC11" s="12"/>
+      <c r="AD11" s="12"/>
+      <c r="AE11" s="12"/>
+      <c r="AF11" s="12"/>
+      <c r="AG11" s="12"/>
       <c r="AH11" s="3"/>
       <c r="AI11" s="3"/>
       <c r="AJ11" s="3"/>
@@ -1261,10 +1257,11 @@
       <c r="BG11" s="3"/>
       <c r="BH11" s="3"/>
       <c r="BI11" s="3"/>
+      <c r="BJ11" s="14"/>
     </row>
-    <row r="12" spans="1:61" ht="15" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:62" ht="15" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -1285,20 +1282,20 @@
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
-      <c r="V12" s="3"/>
-      <c r="W12" s="3"/>
-      <c r="X12" s="3"/>
-      <c r="Y12" s="3"/>
-      <c r="Z12" s="3"/>
-      <c r="AA12" s="3"/>
-      <c r="AB12" s="3"/>
-      <c r="AC12" s="3"/>
-      <c r="AD12" s="3"/>
-      <c r="AE12" s="3"/>
-      <c r="AF12" s="3"/>
-      <c r="AG12" s="3"/>
-      <c r="AH12" s="3"/>
+      <c r="U12" s="13"/>
+      <c r="V12" s="13"/>
+      <c r="W12" s="13"/>
+      <c r="X12" s="13"/>
+      <c r="Y12" s="13"/>
+      <c r="Z12" s="13"/>
+      <c r="AA12" s="13"/>
+      <c r="AB12" s="13"/>
+      <c r="AC12" s="13"/>
+      <c r="AD12" s="13"/>
+      <c r="AE12" s="13"/>
+      <c r="AF12" s="13"/>
+      <c r="AG12" s="13"/>
+      <c r="AH12" s="13"/>
       <c r="AI12" s="3"/>
       <c r="AJ12" s="3"/>
       <c r="AK12" s="3"/>
@@ -1326,10 +1323,11 @@
       <c r="BG12" s="3"/>
       <c r="BH12" s="3"/>
       <c r="BI12" s="3"/>
+      <c r="BJ12" s="14"/>
     </row>
-    <row r="13" spans="1:61" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:62" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1362,13 +1360,13 @@
       <c r="AD13" s="3"/>
       <c r="AE13" s="3"/>
       <c r="AF13" s="3"/>
-      <c r="AG13" s="3"/>
-      <c r="AH13" s="3"/>
-      <c r="AI13" s="3"/>
-      <c r="AJ13" s="3"/>
-      <c r="AK13" s="3"/>
-      <c r="AL13" s="3"/>
-      <c r="AM13" s="3"/>
+      <c r="AG13" s="13"/>
+      <c r="AH13" s="13"/>
+      <c r="AI13" s="13"/>
+      <c r="AJ13" s="13"/>
+      <c r="AK13" s="13"/>
+      <c r="AL13" s="13"/>
+      <c r="AM13" s="13"/>
       <c r="AN13" s="3"/>
       <c r="AO13" s="3"/>
       <c r="AP13" s="3"/>
@@ -1391,10 +1389,11 @@
       <c r="BG13" s="3"/>
       <c r="BH13" s="3"/>
       <c r="BI13" s="3"/>
+      <c r="BJ13" s="14"/>
     </row>
-    <row r="14" spans="1:61" ht="15" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:62" ht="15" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -1431,14 +1430,14 @@
       <c r="AH14" s="3"/>
       <c r="AI14" s="3"/>
       <c r="AJ14" s="3"/>
-      <c r="AK14" s="3"/>
-      <c r="AL14" s="3"/>
-      <c r="AM14" s="3"/>
-      <c r="AN14" s="3"/>
-      <c r="AO14" s="3"/>
-      <c r="AP14" s="3"/>
-      <c r="AQ14" s="3"/>
-      <c r="AR14" s="3"/>
+      <c r="AK14" s="13"/>
+      <c r="AL14" s="13"/>
+      <c r="AM14" s="13"/>
+      <c r="AN14" s="13"/>
+      <c r="AO14" s="13"/>
+      <c r="AP14" s="13"/>
+      <c r="AQ14" s="13"/>
+      <c r="AR14" s="13"/>
       <c r="AS14" s="3"/>
       <c r="AT14" s="3"/>
       <c r="AU14" s="3"/>
@@ -1456,10 +1455,11 @@
       <c r="BG14" s="3"/>
       <c r="BH14" s="3"/>
       <c r="BI14" s="3"/>
+      <c r="BJ14" s="14"/>
     </row>
-    <row r="15" spans="1:61" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:62" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1498,12 +1498,12 @@
       <c r="AJ15" s="3"/>
       <c r="AK15" s="3"/>
       <c r="AL15" s="3"/>
-      <c r="AM15" s="3"/>
-      <c r="AN15" s="3"/>
-      <c r="AO15" s="3"/>
-      <c r="AP15" s="3"/>
-      <c r="AQ15" s="3"/>
-      <c r="AR15" s="3"/>
+      <c r="AM15" s="13"/>
+      <c r="AN15" s="13"/>
+      <c r="AO15" s="13"/>
+      <c r="AP15" s="13"/>
+      <c r="AQ15" s="13"/>
+      <c r="AR15" s="13"/>
       <c r="AS15" s="3"/>
       <c r="AT15" s="3"/>
       <c r="AU15" s="3"/>
@@ -1521,10 +1521,11 @@
       <c r="BG15" s="3"/>
       <c r="BH15" s="3"/>
       <c r="BI15" s="3"/>
+      <c r="BJ15" s="14"/>
     </row>
-    <row r="16" spans="1:61" ht="15" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:62" ht="15" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -1566,12 +1567,12 @@
       <c r="AM16" s="3"/>
       <c r="AN16" s="3"/>
       <c r="AO16" s="3"/>
-      <c r="AP16" s="3"/>
-      <c r="AQ16" s="3"/>
-      <c r="AR16" s="3"/>
-      <c r="AS16" s="3"/>
-      <c r="AT16" s="3"/>
-      <c r="AU16" s="3"/>
+      <c r="AP16" s="13"/>
+      <c r="AQ16" s="13"/>
+      <c r="AR16" s="13"/>
+      <c r="AS16" s="13"/>
+      <c r="AT16" s="13"/>
+      <c r="AU16" s="13"/>
       <c r="AV16" s="3"/>
       <c r="AW16" s="3"/>
       <c r="AX16" s="3"/>
@@ -1586,400 +1587,12 @@
       <c r="BG16" s="3"/>
       <c r="BH16" s="3"/>
       <c r="BI16" s="3"/>
+      <c r="BJ16" s="14"/>
     </row>
-    <row r="17" spans="1:61" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
-      <c r="U17" s="3"/>
-      <c r="V17" s="3"/>
-      <c r="W17" s="3"/>
-      <c r="X17" s="3"/>
-      <c r="Y17" s="3"/>
-      <c r="Z17" s="3"/>
-      <c r="AA17" s="3"/>
-      <c r="AB17" s="3"/>
-      <c r="AC17" s="3"/>
-      <c r="AD17" s="3"/>
-      <c r="AE17" s="3"/>
-      <c r="AF17" s="3"/>
-      <c r="AG17" s="3"/>
-      <c r="AH17" s="3"/>
-      <c r="AI17" s="3"/>
-      <c r="AJ17" s="3"/>
-      <c r="AK17" s="3"/>
-      <c r="AL17" s="3"/>
-      <c r="AM17" s="3"/>
-      <c r="AN17" s="3"/>
-      <c r="AO17" s="3"/>
-      <c r="AP17" s="3"/>
-      <c r="AQ17" s="3"/>
-      <c r="AR17" s="3"/>
-      <c r="AS17" s="3"/>
-      <c r="AT17" s="3"/>
-      <c r="AU17" s="3"/>
-      <c r="AV17" s="3"/>
-      <c r="AW17" s="3"/>
-      <c r="AX17" s="3"/>
-      <c r="AY17" s="3"/>
-      <c r="AZ17" s="3"/>
-      <c r="BA17" s="3"/>
-      <c r="BB17" s="3"/>
-      <c r="BC17" s="3"/>
-      <c r="BD17" s="3"/>
-      <c r="BE17" s="3"/>
-      <c r="BF17" s="3"/>
-      <c r="BG17" s="3"/>
-      <c r="BH17" s="3"/>
-      <c r="BI17" s="3"/>
-    </row>
-    <row r="18" spans="1:61" ht="15" x14ac:dyDescent="0.15">
-      <c r="A18" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
-      <c r="U18" s="3"/>
-      <c r="V18" s="3"/>
-      <c r="W18" s="3"/>
-      <c r="X18" s="3"/>
-      <c r="Y18" s="3"/>
-      <c r="Z18" s="3"/>
-      <c r="AA18" s="3"/>
-      <c r="AB18" s="3"/>
-      <c r="AC18" s="3"/>
-      <c r="AD18" s="3"/>
-      <c r="AE18" s="3"/>
-      <c r="AF18" s="3"/>
-      <c r="AG18" s="3"/>
-      <c r="AH18" s="3"/>
-      <c r="AI18" s="3"/>
-      <c r="AJ18" s="3"/>
-      <c r="AK18" s="3"/>
-      <c r="AL18" s="3"/>
-      <c r="AM18" s="3"/>
-      <c r="AN18" s="3"/>
-      <c r="AO18" s="3"/>
-      <c r="AP18" s="3"/>
-      <c r="AQ18" s="3"/>
-      <c r="AR18" s="3"/>
-      <c r="AS18" s="3"/>
-      <c r="AT18" s="3"/>
-      <c r="AU18" s="3"/>
-      <c r="AV18" s="3"/>
-      <c r="AW18" s="3"/>
-      <c r="AX18" s="3"/>
-      <c r="AY18" s="3"/>
-      <c r="AZ18" s="3"/>
-      <c r="BA18" s="3"/>
-      <c r="BB18" s="3"/>
-      <c r="BC18" s="3"/>
-      <c r="BD18" s="3"/>
-      <c r="BE18" s="3"/>
-      <c r="BF18" s="3"/>
-      <c r="BG18" s="3"/>
-      <c r="BH18" s="3"/>
-      <c r="BI18" s="3"/>
-    </row>
-    <row r="19" spans="1:61" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="3"/>
-      <c r="U19" s="3"/>
-      <c r="V19" s="3"/>
-      <c r="W19" s="3"/>
-      <c r="X19" s="3"/>
-      <c r="Y19" s="3"/>
-      <c r="Z19" s="3"/>
-      <c r="AA19" s="3"/>
-      <c r="AB19" s="3"/>
-      <c r="AC19" s="3"/>
-      <c r="AD19" s="3"/>
-      <c r="AE19" s="3"/>
-      <c r="AF19" s="3"/>
-      <c r="AG19" s="3"/>
-      <c r="AH19" s="3"/>
-      <c r="AI19" s="3"/>
-      <c r="AJ19" s="3"/>
-      <c r="AK19" s="3"/>
-      <c r="AL19" s="3"/>
-      <c r="AM19" s="3"/>
-      <c r="AN19" s="3"/>
-      <c r="AO19" s="3"/>
-      <c r="AP19" s="3"/>
-      <c r="AQ19" s="3"/>
-      <c r="AR19" s="3"/>
-      <c r="AS19" s="3"/>
-      <c r="AT19" s="3"/>
-      <c r="AU19" s="3"/>
-      <c r="AV19" s="3"/>
-      <c r="AW19" s="3"/>
-      <c r="AX19" s="3"/>
-      <c r="AY19" s="3"/>
-      <c r="AZ19" s="3"/>
-      <c r="BA19" s="3"/>
-      <c r="BB19" s="3"/>
-      <c r="BC19" s="3"/>
-      <c r="BD19" s="3"/>
-      <c r="BE19" s="3"/>
-      <c r="BF19" s="3"/>
-      <c r="BG19" s="3"/>
-      <c r="BH19" s="3"/>
-      <c r="BI19" s="3"/>
-    </row>
-    <row r="20" spans="1:61" ht="15" x14ac:dyDescent="0.15">
-      <c r="A20" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
-      <c r="S20" s="3"/>
-      <c r="T20" s="3"/>
-      <c r="U20" s="3"/>
-      <c r="V20" s="3"/>
-      <c r="W20" s="3"/>
-      <c r="X20" s="3"/>
-      <c r="Y20" s="3"/>
-      <c r="Z20" s="3"/>
-      <c r="AA20" s="3"/>
-      <c r="AB20" s="3"/>
-      <c r="AC20" s="3"/>
-      <c r="AD20" s="3"/>
-      <c r="AE20" s="3"/>
-      <c r="AF20" s="3"/>
-      <c r="AG20" s="3"/>
-      <c r="AH20" s="3"/>
-      <c r="AI20" s="3"/>
-      <c r="AJ20" s="3"/>
-      <c r="AK20" s="3"/>
-      <c r="AL20" s="3"/>
-      <c r="AM20" s="3"/>
-      <c r="AN20" s="3"/>
-      <c r="AO20" s="3"/>
-      <c r="AP20" s="3"/>
-      <c r="AQ20" s="3"/>
-      <c r="AR20" s="3"/>
-      <c r="AS20" s="3"/>
-      <c r="AT20" s="3"/>
-      <c r="AU20" s="3"/>
-      <c r="AV20" s="3"/>
-      <c r="AW20" s="3"/>
-      <c r="AX20" s="3"/>
-      <c r="AY20" s="3"/>
-      <c r="AZ20" s="3"/>
-      <c r="BA20" s="3"/>
-      <c r="BB20" s="3"/>
-      <c r="BC20" s="3"/>
-      <c r="BD20" s="3"/>
-      <c r="BE20" s="3"/>
-      <c r="BF20" s="3"/>
-      <c r="BG20" s="3"/>
-      <c r="BH20" s="3"/>
-      <c r="BI20" s="3"/>
-    </row>
-    <row r="21" spans="1:61" ht="15" x14ac:dyDescent="0.15">
-      <c r="A21" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="3"/>
-      <c r="S21" s="3"/>
-      <c r="T21" s="3"/>
-      <c r="U21" s="3"/>
-      <c r="V21" s="3"/>
-      <c r="W21" s="3"/>
-      <c r="X21" s="3"/>
-      <c r="Y21" s="3"/>
-      <c r="Z21" s="3"/>
-      <c r="AA21" s="3"/>
-      <c r="AB21" s="3"/>
-      <c r="AC21" s="3"/>
-      <c r="AD21" s="3"/>
-      <c r="AE21" s="3"/>
-      <c r="AF21" s="3"/>
-      <c r="AG21" s="3"/>
-      <c r="AH21" s="3"/>
-      <c r="AI21" s="3"/>
-      <c r="AJ21" s="3"/>
-      <c r="AK21" s="3"/>
-      <c r="AL21" s="3"/>
-      <c r="AM21" s="3"/>
-      <c r="AN21" s="3"/>
-      <c r="AO21" s="3"/>
-      <c r="AP21" s="3"/>
-      <c r="AQ21" s="3"/>
-      <c r="AR21" s="3"/>
-      <c r="AS21" s="3"/>
-      <c r="AT21" s="3"/>
-      <c r="AU21" s="3"/>
-      <c r="AV21" s="3"/>
-      <c r="AW21" s="3"/>
-      <c r="AX21" s="3"/>
-      <c r="AY21" s="3"/>
-      <c r="AZ21" s="3"/>
-      <c r="BA21" s="3"/>
-      <c r="BB21" s="3"/>
-      <c r="BC21" s="3"/>
-      <c r="BD21" s="3"/>
-      <c r="BE21" s="3"/>
-      <c r="BF21" s="3"/>
-      <c r="BG21" s="3"/>
-      <c r="BH21" s="3"/>
-      <c r="BI21" s="3"/>
-    </row>
-    <row r="22" spans="1:61" ht="15" x14ac:dyDescent="0.15">
-      <c r="A22" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="3"/>
-      <c r="S22" s="3"/>
-      <c r="T22" s="3"/>
-      <c r="U22" s="3"/>
-      <c r="V22" s="3"/>
-      <c r="W22" s="3"/>
-      <c r="X22" s="3"/>
-      <c r="Y22" s="3"/>
-      <c r="Z22" s="3"/>
-      <c r="AA22" s="3"/>
-      <c r="AB22" s="3"/>
-      <c r="AC22" s="3"/>
-      <c r="AD22" s="3"/>
-      <c r="AE22" s="3"/>
-      <c r="AF22" s="3"/>
-      <c r="AG22" s="3"/>
-      <c r="AH22" s="3"/>
-      <c r="AI22" s="3"/>
-      <c r="AJ22" s="3"/>
-      <c r="AK22" s="3"/>
-      <c r="AL22" s="3"/>
-      <c r="AM22" s="3"/>
-      <c r="AN22" s="3"/>
-      <c r="AO22" s="3"/>
-      <c r="AP22" s="3"/>
-      <c r="AQ22" s="3"/>
-      <c r="AR22" s="3"/>
-      <c r="AS22" s="3"/>
-      <c r="AT22" s="3"/>
-      <c r="AU22" s="3"/>
-      <c r="AV22" s="3"/>
-      <c r="AW22" s="3"/>
-      <c r="AX22" s="3"/>
-      <c r="AY22" s="3"/>
-      <c r="AZ22" s="3"/>
-      <c r="BA22" s="3"/>
-      <c r="BB22" s="3"/>
-      <c r="BC22" s="3"/>
-      <c r="BD22" s="3"/>
-      <c r="BE22" s="3"/>
-      <c r="BF22" s="3"/>
-      <c r="BG22" s="3"/>
-      <c r="BH22" s="3"/>
-      <c r="BI22" s="3"/>
-    </row>
-    <row r="23" spans="1:61" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" t="s">
-        <v>5</v>
+    <row r="17" spans="2:2" ht="14" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B19" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
